--- a/Data/LUCIA AND QINGXI/Education, Health, Entertainment by local district.xlsx
+++ b/Data/LUCIA AND QINGXI/Education, Health, Entertainment by local district.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaoruini/Downloads/MDM3-House/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\mdm_3_phace_C\Data\LUCIA AND QINGXI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F67AF-3F8E-A948-95BF-FEA80FC0969F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F273E54-2BDC-48C5-A1AC-92EF655DB812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1480" windowWidth="27240" windowHeight="15520" xr2:uid="{65BC1FCC-9906-6F48-B410-4FBA2464751C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65BC1FCC-9906-6F48-B410-4FBA2464751C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table_1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -975,978 +985,984 @@
     <t>South Somerset</t>
   </si>
   <si>
+    <t>E07000223</t>
+  </si>
+  <si>
+    <t>E07000026</t>
+  </si>
+  <si>
+    <t>E07000032</t>
+  </si>
+  <si>
+    <t>E07000224</t>
+  </si>
+  <si>
+    <t>E07000170</t>
+  </si>
+  <si>
+    <t>E07000105</t>
+  </si>
+  <si>
+    <t>E07000200</t>
+  </si>
+  <si>
+    <t>E09000002</t>
+  </si>
+  <si>
+    <t>E09000003</t>
+  </si>
+  <si>
+    <t>E08000016</t>
+  </si>
+  <si>
+    <t>E07000027</t>
+  </si>
+  <si>
+    <t>E07000066</t>
+  </si>
+  <si>
+    <t>E07000084</t>
+  </si>
+  <si>
+    <t>E07000171</t>
+  </si>
+  <si>
+    <t>E06000022</t>
+  </si>
+  <si>
+    <t>E06000055</t>
+  </si>
+  <si>
+    <t>E09000004</t>
+  </si>
+  <si>
+    <t>E08000025</t>
+  </si>
+  <si>
+    <t>E07000129</t>
+  </si>
+  <si>
+    <t>E06000008</t>
+  </si>
+  <si>
+    <t>E06000009</t>
+  </si>
+  <si>
+    <t>E07000033</t>
+  </si>
+  <si>
+    <t>E08000001</t>
+  </si>
+  <si>
+    <t>E07000136</t>
+  </si>
+  <si>
+    <t>E06000058</t>
+  </si>
+  <si>
+    <t>E06000036</t>
+  </si>
+  <si>
+    <t>E08000032</t>
+  </si>
+  <si>
+    <t>E07000067</t>
+  </si>
+  <si>
+    <t>E07000143</t>
+  </si>
+  <si>
+    <t>E09000005</t>
+  </si>
+  <si>
+    <t>E07000068</t>
+  </si>
+  <si>
+    <t>E06000043</t>
+  </si>
+  <si>
+    <t>E06000023</t>
+  </si>
+  <si>
+    <t>E07000144</t>
+  </si>
+  <si>
+    <t>E09000006</t>
+  </si>
+  <si>
+    <t>E07000234</t>
+  </si>
+  <si>
+    <t>E07000095</t>
+  </si>
+  <si>
+    <t>E07000172</t>
+  </si>
+  <si>
+    <t>E06000060</t>
+  </si>
+  <si>
+    <t>E07000117</t>
+  </si>
+  <si>
+    <t>E08000002</t>
+  </si>
+  <si>
+    <t>E08000033</t>
+  </si>
+  <si>
+    <t>E07000008</t>
+  </si>
+  <si>
+    <t>E09000007</t>
+  </si>
+  <si>
+    <t>E07000192</t>
+  </si>
+  <si>
+    <t>E07000106</t>
+  </si>
+  <si>
+    <t>E07000028</t>
+  </si>
+  <si>
+    <t>E07000069</t>
+  </si>
+  <si>
+    <t>E06000056</t>
+  </si>
+  <si>
+    <t>E07000130</t>
+  </si>
+  <si>
+    <t>E07000070</t>
+  </si>
+  <si>
+    <t>E07000078</t>
+  </si>
+  <si>
+    <t>E07000177</t>
+  </si>
+  <si>
+    <t>E06000049</t>
+  </si>
+  <si>
+    <t>E06000050</t>
+  </si>
+  <si>
+    <t>E07000034</t>
+  </si>
+  <si>
+    <t>E07000225</t>
+  </si>
+  <si>
+    <t>E07000118</t>
+  </si>
+  <si>
+    <t>E09000001</t>
+  </si>
+  <si>
+    <t>E07000071</t>
+  </si>
+  <si>
+    <t>E07000029</t>
+  </si>
+  <si>
+    <t>E07000150</t>
+  </si>
+  <si>
+    <t>E06000052</t>
+  </si>
+  <si>
+    <t>E07000079</t>
+  </si>
+  <si>
+    <t>E06000047</t>
+  </si>
+  <si>
+    <t>E08000026</t>
+  </si>
+  <si>
+    <t>E07000163</t>
+  </si>
+  <si>
+    <t>E07000226</t>
+  </si>
+  <si>
+    <t>E09000008</t>
+  </si>
+  <si>
+    <t>E07000096</t>
+  </si>
+  <si>
+    <t>E06000005</t>
+  </si>
+  <si>
+    <t>E07000107</t>
+  </si>
+  <si>
+    <t>E07000151</t>
+  </si>
+  <si>
+    <t>E06000015</t>
+  </si>
+  <si>
+    <t>E07000035</t>
+  </si>
+  <si>
+    <t>E08000017</t>
+  </si>
+  <si>
+    <t>E06000059</t>
+  </si>
+  <si>
+    <t>E07000108</t>
+  </si>
+  <si>
+    <t>E08000027</t>
+  </si>
+  <si>
+    <t>E09000009</t>
+  </si>
+  <si>
+    <t>E07000009</t>
+  </si>
+  <si>
+    <t>E07000040</t>
+  </si>
+  <si>
+    <t>E07000085</t>
+  </si>
+  <si>
+    <t>E07000242</t>
+  </si>
+  <si>
+    <t>E07000137</t>
+  </si>
+  <si>
+    <t>E07000152</t>
+  </si>
+  <si>
+    <t>E06000011</t>
+  </si>
+  <si>
+    <t>E07000193</t>
+  </si>
+  <si>
+    <t>E07000244</t>
+  </si>
+  <si>
+    <t>E07000061</t>
+  </si>
+  <si>
+    <t>E07000086</t>
+  </si>
+  <si>
+    <t>E07000030</t>
+  </si>
+  <si>
+    <t>E07000207</t>
+  </si>
+  <si>
+    <t>E09000010</t>
+  </si>
+  <si>
+    <t>E07000072</t>
+  </si>
+  <si>
+    <t>E07000208</t>
+  </si>
+  <si>
+    <t>E07000036</t>
+  </si>
+  <si>
+    <t>E07000041</t>
+  </si>
+  <si>
+    <t>E07000087</t>
+  </si>
+  <si>
+    <t>E07000010</t>
+  </si>
+  <si>
+    <t>E07000112</t>
+  </si>
+  <si>
+    <t>E07000080</t>
+  </si>
+  <si>
+    <t>E07000119</t>
+  </si>
+  <si>
+    <t>E08000037</t>
+  </si>
+  <si>
+    <t>E07000173</t>
+  </si>
+  <si>
+    <t>E07000081</t>
+  </si>
+  <si>
+    <t>E07000088</t>
+  </si>
+  <si>
+    <t>E07000109</t>
+  </si>
+  <si>
+    <t>E07000145</t>
+  </si>
+  <si>
+    <t>E09000011</t>
+  </si>
+  <si>
+    <t>E07000209</t>
+  </si>
+  <si>
+    <t>E09000012</t>
+  </si>
+  <si>
+    <t>E06000006</t>
+  </si>
+  <si>
+    <t>E07000164</t>
+  </si>
+  <si>
+    <t>E09000013</t>
+  </si>
+  <si>
+    <t>E07000131</t>
+  </si>
+  <si>
+    <t>E09000014</t>
+  </si>
+  <si>
+    <t>E07000073</t>
+  </si>
+  <si>
+    <t>E07000165</t>
+  </si>
+  <si>
+    <t>E09000015</t>
+  </si>
+  <si>
+    <t>E07000089</t>
+  </si>
+  <si>
+    <t>E06000001</t>
+  </si>
+  <si>
+    <t>E07000062</t>
+  </si>
+  <si>
+    <t>E07000090</t>
+  </si>
+  <si>
+    <t>E09000016</t>
+  </si>
+  <si>
+    <t>E06000019</t>
+  </si>
+  <si>
+    <t>E07000098</t>
+  </si>
+  <si>
+    <t>E07000037</t>
+  </si>
+  <si>
+    <t>E09000017</t>
+  </si>
+  <si>
+    <t>E07000132</t>
+  </si>
+  <si>
+    <t>E07000227</t>
+  </si>
+  <si>
+    <t>E09000018</t>
+  </si>
+  <si>
+    <t>E07000011</t>
+  </si>
+  <si>
+    <t>E07000120</t>
+  </si>
+  <si>
+    <t>E07000202</t>
+  </si>
+  <si>
+    <t>E06000046</t>
+  </si>
+  <si>
+    <t>E06000053</t>
+  </si>
+  <si>
+    <t>E09000019</t>
+  </si>
+  <si>
+    <t>E09000020</t>
+  </si>
+  <si>
+    <t>E07000153</t>
+  </si>
+  <si>
+    <t>E07000146</t>
+  </si>
+  <si>
+    <t>E06000010</t>
+  </si>
+  <si>
+    <t>E09000021</t>
+  </si>
+  <si>
+    <t>E08000034</t>
+  </si>
+  <si>
+    <t>E08000011</t>
+  </si>
+  <si>
+    <t>E09000022</t>
+  </si>
+  <si>
+    <t>E07000121</t>
+  </si>
+  <si>
+    <t>E08000035</t>
+  </si>
+  <si>
+    <t>E06000016</t>
+  </si>
+  <si>
+    <t>E07000063</t>
+  </si>
+  <si>
+    <t>E09000023</t>
+  </si>
+  <si>
+    <t>E07000194</t>
+  </si>
+  <si>
+    <t>E07000138</t>
+  </si>
+  <si>
+    <t>E08000012</t>
+  </si>
+  <si>
+    <t>E06000032</t>
+  </si>
+  <si>
+    <t>E07000110</t>
+  </si>
+  <si>
+    <t>E07000074</t>
+  </si>
+  <si>
+    <t>E07000235</t>
+  </si>
+  <si>
+    <t>E08000003</t>
+  </si>
+  <si>
+    <t>E07000174</t>
+  </si>
+  <si>
+    <t>E06000035</t>
+  </si>
+  <si>
+    <t>E07000133</t>
+  </si>
+  <si>
+    <t>E07000187</t>
+  </si>
+  <si>
+    <t>E09000024</t>
+  </si>
+  <si>
+    <t>E07000042</t>
+  </si>
+  <si>
+    <t>E07000203</t>
+  </si>
+  <si>
+    <t>E07000228</t>
+  </si>
+  <si>
+    <t>E06000002</t>
+  </si>
+  <si>
+    <t>E06000042</t>
+  </si>
+  <si>
+    <t>E07000210</t>
+  </si>
+  <si>
+    <t>E07000091</t>
+  </si>
+  <si>
+    <t>E07000175</t>
+  </si>
+  <si>
+    <t>E08000021</t>
+  </si>
+  <si>
+    <t>E07000195</t>
+  </si>
+  <si>
+    <t>E09000025</t>
+  </si>
+  <si>
+    <t>E07000043</t>
+  </si>
+  <si>
+    <t>E07000038</t>
+  </si>
+  <si>
+    <t>E06000012</t>
+  </si>
+  <si>
+    <t>E07000099</t>
+  </si>
+  <si>
+    <t>E07000139</t>
+  </si>
+  <si>
+    <t>E06000013</t>
+  </si>
+  <si>
+    <t>E07000147</t>
+  </si>
+  <si>
+    <t>E06000024</t>
+  </si>
+  <si>
+    <t>E08000022</t>
+  </si>
+  <si>
+    <t>E07000218</t>
+  </si>
+  <si>
+    <t>E07000134</t>
+  </si>
+  <si>
+    <t>E07000154</t>
+  </si>
+  <si>
+    <t>E06000057</t>
+  </si>
+  <si>
+    <t>E07000148</t>
+  </si>
+  <si>
+    <t>E06000018</t>
+  </si>
+  <si>
+    <t>E07000219</t>
+  </si>
+  <si>
+    <t>E07000135</t>
+  </si>
+  <si>
+    <t>E08000004</t>
+  </si>
+  <si>
+    <t>E07000178</t>
+  </si>
+  <si>
+    <t>E07000122</t>
+  </si>
+  <si>
+    <t>E06000031</t>
+  </si>
+  <si>
+    <t>E06000026</t>
+  </si>
+  <si>
+    <t>E06000044</t>
+  </si>
+  <si>
+    <t>E07000123</t>
+  </si>
+  <si>
+    <t>E06000038</t>
+  </si>
+  <si>
+    <t>E09000026</t>
+  </si>
+  <si>
+    <t>E06000003</t>
+  </si>
+  <si>
+    <t>E07000236</t>
+  </si>
+  <si>
+    <t>E07000211</t>
+  </si>
+  <si>
+    <t>E07000124</t>
+  </si>
+  <si>
+    <t>E09000027</t>
+  </si>
+  <si>
+    <t>E07000166</t>
+  </si>
+  <si>
+    <t>E08000005</t>
+  </si>
+  <si>
+    <t>E07000075</t>
+  </si>
+  <si>
+    <t>E07000125</t>
+  </si>
+  <si>
+    <t>E07000064</t>
+  </si>
+  <si>
+    <t>E08000018</t>
+  </si>
+  <si>
+    <t>E07000220</t>
+  </si>
+  <si>
+    <t>E07000212</t>
+  </si>
+  <si>
+    <t>E07000176</t>
+  </si>
+  <si>
+    <t>E07000092</t>
+  </si>
+  <si>
+    <t>E06000017</t>
+  </si>
+  <si>
+    <t>E07000167</t>
+  </si>
+  <si>
+    <t>E08000006</t>
+  </si>
+  <si>
+    <t>E08000028</t>
+  </si>
+  <si>
+    <t>E07000168</t>
+  </si>
+  <si>
+    <t>E07000188</t>
+  </si>
+  <si>
+    <t>E08000014</t>
+  </si>
+  <si>
+    <t>E07000169</t>
+  </si>
+  <si>
+    <t>E07000111</t>
+  </si>
+  <si>
+    <t>E08000019</t>
+  </si>
+  <si>
+    <t>E06000051</t>
+  </si>
+  <si>
+    <t>E06000039</t>
+  </si>
+  <si>
+    <t>E08000029</t>
+  </si>
+  <si>
+    <t>E07000246</t>
+  </si>
+  <si>
+    <t>E07000012</t>
+  </si>
+  <si>
+    <t>E07000039</t>
+  </si>
+  <si>
+    <t>E06000025</t>
+  </si>
+  <si>
+    <t>E07000044</t>
+  </si>
+  <si>
+    <t>E07000140</t>
+  </si>
+  <si>
+    <t>E07000141</t>
+  </si>
+  <si>
+    <t>E07000031</t>
+  </si>
+  <si>
+    <t>E07000149</t>
+  </si>
+  <si>
+    <t>E07000155</t>
+  </si>
+  <si>
+    <t>E07000179</t>
+  </si>
+  <si>
+    <t>E07000126</t>
+  </si>
+  <si>
+    <t>E07000189</t>
+  </si>
+  <si>
+    <t>E07000196</t>
+  </si>
+  <si>
+    <t>E08000023</t>
+  </si>
+  <si>
+    <t>E06000045</t>
+  </si>
+  <si>
+    <t>E06000033</t>
+  </si>
+  <si>
+    <t>E09000028</t>
+  </si>
+  <si>
+    <t>E07000213</t>
+  </si>
+  <si>
+    <t>E07000240</t>
+  </si>
+  <si>
+    <t>E08000013</t>
+  </si>
+  <si>
+    <t>E07000197</t>
+  </si>
+  <si>
+    <t>E07000198</t>
+  </si>
+  <si>
+    <t>E07000243</t>
+  </si>
+  <si>
+    <t>E08000007</t>
+  </si>
+  <si>
+    <t>E06000004</t>
+  </si>
+  <si>
+    <t>E06000021</t>
+  </si>
+  <si>
+    <t>E07000221</t>
+  </si>
+  <si>
+    <t>E07000082</t>
+  </si>
+  <si>
+    <t>E10000029</t>
+  </si>
+  <si>
+    <t>E08000024</t>
+  </si>
+  <si>
+    <t>E07000214</t>
+  </si>
+  <si>
+    <t>E09000029</t>
+  </si>
+  <si>
+    <t>E07000113</t>
+  </si>
+  <si>
+    <t>E06000030</t>
+  </si>
+  <si>
+    <t>E08000008</t>
+  </si>
+  <si>
+    <t>E07000199</t>
+  </si>
+  <si>
+    <t>E07000215</t>
+  </si>
+  <si>
+    <t>E07000045</t>
+  </si>
+  <si>
+    <t>E06000020</t>
+  </si>
+  <si>
+    <t>E07000076</t>
+  </si>
+  <si>
+    <t>E07000093</t>
+  </si>
+  <si>
+    <t>E07000083</t>
+  </si>
+  <si>
+    <t>E07000114</t>
+  </si>
+  <si>
+    <t>E07000102</t>
+  </si>
+  <si>
+    <t>E06000034</t>
+  </si>
+  <si>
+    <t>E07000115</t>
+  </si>
+  <si>
+    <t>E06000027</t>
+  </si>
+  <si>
+    <t>E07000046</t>
+  </si>
+  <si>
+    <t>E09000030</t>
+  </si>
+  <si>
+    <t>E08000009</t>
+  </si>
+  <si>
+    <t>E07000116</t>
+  </si>
+  <si>
+    <t>E07000077</t>
+  </si>
+  <si>
+    <t>E07000180</t>
+  </si>
+  <si>
+    <t>E08000036</t>
+  </si>
+  <si>
+    <t>E08000030</t>
+  </si>
+  <si>
+    <t>E09000031</t>
+  </si>
+  <si>
+    <t>E09000032</t>
+  </si>
+  <si>
+    <t>E06000007</t>
+  </si>
+  <si>
+    <t>E07000222</t>
+  </si>
+  <si>
+    <t>E07000103</t>
+  </si>
+  <si>
+    <t>E07000216</t>
+  </si>
+  <si>
+    <t>E07000065</t>
+  </si>
+  <si>
+    <t>E07000156</t>
+  </si>
+  <si>
+    <t>E07000241</t>
+  </si>
+  <si>
+    <t>E06000037</t>
+  </si>
+  <si>
+    <t>E07000047</t>
+  </si>
+  <si>
+    <t>E07000127</t>
+  </si>
+  <si>
+    <t>E07000142</t>
+  </si>
+  <si>
+    <t>E07000181</t>
+  </si>
+  <si>
+    <t>E07000245</t>
+  </si>
+  <si>
+    <t>E09000033</t>
+  </si>
+  <si>
+    <t>E08000010</t>
+  </si>
+  <si>
+    <t>E06000054</t>
+  </si>
+  <si>
+    <t>E07000094</t>
+  </si>
+  <si>
+    <t>E06000040</t>
+  </si>
+  <si>
+    <t>E08000015</t>
+  </si>
+  <si>
+    <t>E07000217</t>
+  </si>
+  <si>
+    <t>E06000041</t>
+  </si>
+  <si>
+    <t>E08000031</t>
+  </si>
+  <si>
+    <t>E07000237</t>
+  </si>
+  <si>
+    <t>E07000229</t>
+  </si>
+  <si>
+    <t>E07000238</t>
+  </si>
+  <si>
+    <t>E07000128</t>
+  </si>
+  <si>
+    <t>E07000239</t>
+  </si>
+  <si>
+    <t>E06000014</t>
+  </si>
+  <si>
+    <t>Local Authority name</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Authority code</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Retail</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Education</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Health</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Arts, entertainment, recreation &amp; other services</t>
-  </si>
-  <si>
-    <t>Local Authority</t>
-  </si>
-  <si>
-    <t>Local Authority Code</t>
-  </si>
-  <si>
-    <t>E07000223</t>
-  </si>
-  <si>
-    <t>E07000026</t>
-  </si>
-  <si>
-    <t>E07000032</t>
-  </si>
-  <si>
-    <t>E07000224</t>
-  </si>
-  <si>
-    <t>E07000170</t>
-  </si>
-  <si>
-    <t>E07000105</t>
-  </si>
-  <si>
-    <t>E07000200</t>
-  </si>
-  <si>
-    <t>E09000002</t>
-  </si>
-  <si>
-    <t>E09000003</t>
-  </si>
-  <si>
-    <t>E08000016</t>
-  </si>
-  <si>
-    <t>E07000027</t>
-  </si>
-  <si>
-    <t>E07000066</t>
-  </si>
-  <si>
-    <t>E07000084</t>
-  </si>
-  <si>
-    <t>E07000171</t>
-  </si>
-  <si>
-    <t>E06000022</t>
-  </si>
-  <si>
-    <t>E06000055</t>
-  </si>
-  <si>
-    <t>E09000004</t>
-  </si>
-  <si>
-    <t>E08000025</t>
-  </si>
-  <si>
-    <t>E07000129</t>
-  </si>
-  <si>
-    <t>E06000008</t>
-  </si>
-  <si>
-    <t>E06000009</t>
-  </si>
-  <si>
-    <t>E07000033</t>
-  </si>
-  <si>
-    <t>E08000001</t>
-  </si>
-  <si>
-    <t>E07000136</t>
-  </si>
-  <si>
-    <t>E06000058</t>
-  </si>
-  <si>
-    <t>E06000036</t>
-  </si>
-  <si>
-    <t>E08000032</t>
-  </si>
-  <si>
-    <t>E07000067</t>
-  </si>
-  <si>
-    <t>E07000143</t>
-  </si>
-  <si>
-    <t>E09000005</t>
-  </si>
-  <si>
-    <t>E07000068</t>
-  </si>
-  <si>
-    <t>E06000043</t>
-  </si>
-  <si>
-    <t>E06000023</t>
-  </si>
-  <si>
-    <t>E07000144</t>
-  </si>
-  <si>
-    <t>E09000006</t>
-  </si>
-  <si>
-    <t>E07000234</t>
-  </si>
-  <si>
-    <t>E07000095</t>
-  </si>
-  <si>
-    <t>E07000172</t>
-  </si>
-  <si>
-    <t>E06000060</t>
-  </si>
-  <si>
-    <t>E07000117</t>
-  </si>
-  <si>
-    <t>E08000002</t>
-  </si>
-  <si>
-    <t>E08000033</t>
-  </si>
-  <si>
-    <t>E07000008</t>
-  </si>
-  <si>
-    <t>E09000007</t>
-  </si>
-  <si>
-    <t>E07000192</t>
-  </si>
-  <si>
-    <t>E07000106</t>
-  </si>
-  <si>
-    <t>E07000028</t>
-  </si>
-  <si>
-    <t>E07000069</t>
-  </si>
-  <si>
-    <t>E06000056</t>
-  </si>
-  <si>
-    <t>E07000130</t>
-  </si>
-  <si>
-    <t>E07000070</t>
-  </si>
-  <si>
-    <t>E07000078</t>
-  </si>
-  <si>
-    <t>E07000177</t>
-  </si>
-  <si>
-    <t>E06000049</t>
-  </si>
-  <si>
-    <t>E06000050</t>
-  </si>
-  <si>
-    <t>E07000034</t>
-  </si>
-  <si>
-    <t>E07000225</t>
-  </si>
-  <si>
-    <t>E07000118</t>
-  </si>
-  <si>
-    <t>E09000001</t>
-  </si>
-  <si>
-    <t>E07000071</t>
-  </si>
-  <si>
-    <t>E07000029</t>
-  </si>
-  <si>
-    <t>E07000150</t>
-  </si>
-  <si>
-    <t>E06000052</t>
-  </si>
-  <si>
-    <t>E07000079</t>
-  </si>
-  <si>
-    <t>E06000047</t>
-  </si>
-  <si>
-    <t>E08000026</t>
-  </si>
-  <si>
-    <t>E07000163</t>
-  </si>
-  <si>
-    <t>E07000226</t>
-  </si>
-  <si>
-    <t>E09000008</t>
-  </si>
-  <si>
-    <t>E07000096</t>
-  </si>
-  <si>
-    <t>E06000005</t>
-  </si>
-  <si>
-    <t>E07000107</t>
-  </si>
-  <si>
-    <t>E07000151</t>
-  </si>
-  <si>
-    <t>E06000015</t>
-  </si>
-  <si>
-    <t>E07000035</t>
-  </si>
-  <si>
-    <t>E08000017</t>
-  </si>
-  <si>
-    <t>E06000059</t>
-  </si>
-  <si>
-    <t>E07000108</t>
-  </si>
-  <si>
-    <t>E08000027</t>
-  </si>
-  <si>
-    <t>E09000009</t>
-  </si>
-  <si>
-    <t>E07000009</t>
-  </si>
-  <si>
-    <t>E07000040</t>
-  </si>
-  <si>
-    <t>E07000085</t>
-  </si>
-  <si>
-    <t>E07000242</t>
-  </si>
-  <si>
-    <t>E07000137</t>
-  </si>
-  <si>
-    <t>E07000152</t>
-  </si>
-  <si>
-    <t>E06000011</t>
-  </si>
-  <si>
-    <t>E07000193</t>
-  </si>
-  <si>
-    <t>E07000244</t>
-  </si>
-  <si>
-    <t>E07000061</t>
-  </si>
-  <si>
-    <t>E07000086</t>
-  </si>
-  <si>
-    <t>E07000030</t>
-  </si>
-  <si>
-    <t>E07000207</t>
-  </si>
-  <si>
-    <t>E09000010</t>
-  </si>
-  <si>
-    <t>E07000072</t>
-  </si>
-  <si>
-    <t>E07000208</t>
-  </si>
-  <si>
-    <t>E07000036</t>
-  </si>
-  <si>
-    <t>E07000041</t>
-  </si>
-  <si>
-    <t>E07000087</t>
-  </si>
-  <si>
-    <t>E07000010</t>
-  </si>
-  <si>
-    <t>E07000112</t>
-  </si>
-  <si>
-    <t>E07000080</t>
-  </si>
-  <si>
-    <t>E07000119</t>
-  </si>
-  <si>
-    <t>E08000037</t>
-  </si>
-  <si>
-    <t>E07000173</t>
-  </si>
-  <si>
-    <t>E07000081</t>
-  </si>
-  <si>
-    <t>E07000088</t>
-  </si>
-  <si>
-    <t>E07000109</t>
-  </si>
-  <si>
-    <t>E07000145</t>
-  </si>
-  <si>
-    <t>E09000011</t>
-  </si>
-  <si>
-    <t>E07000209</t>
-  </si>
-  <si>
-    <t>E09000012</t>
-  </si>
-  <si>
-    <t>E06000006</t>
-  </si>
-  <si>
-    <t>E07000164</t>
-  </si>
-  <si>
-    <t>E09000013</t>
-  </si>
-  <si>
-    <t>E07000131</t>
-  </si>
-  <si>
-    <t>E09000014</t>
-  </si>
-  <si>
-    <t>E07000073</t>
-  </si>
-  <si>
-    <t>E07000165</t>
-  </si>
-  <si>
-    <t>E09000015</t>
-  </si>
-  <si>
-    <t>E07000089</t>
-  </si>
-  <si>
-    <t>E06000001</t>
-  </si>
-  <si>
-    <t>E07000062</t>
-  </si>
-  <si>
-    <t>E07000090</t>
-  </si>
-  <si>
-    <t>E09000016</t>
-  </si>
-  <si>
-    <t>E06000019</t>
-  </si>
-  <si>
-    <t>E07000098</t>
-  </si>
-  <si>
-    <t>E07000037</t>
-  </si>
-  <si>
-    <t>E09000017</t>
-  </si>
-  <si>
-    <t>E07000132</t>
-  </si>
-  <si>
-    <t>E07000227</t>
-  </si>
-  <si>
-    <t>E09000018</t>
-  </si>
-  <si>
-    <t>E07000011</t>
-  </si>
-  <si>
-    <t>E07000120</t>
-  </si>
-  <si>
-    <t>E07000202</t>
-  </si>
-  <si>
-    <t>E06000046</t>
-  </si>
-  <si>
-    <t>E06000053</t>
-  </si>
-  <si>
-    <t>E09000019</t>
-  </si>
-  <si>
-    <t>E09000020</t>
-  </si>
-  <si>
-    <t>E07000153</t>
-  </si>
-  <si>
-    <t>E07000146</t>
-  </si>
-  <si>
-    <t>E06000010</t>
-  </si>
-  <si>
-    <t>E09000021</t>
-  </si>
-  <si>
-    <t>E08000034</t>
-  </si>
-  <si>
-    <t>E08000011</t>
-  </si>
-  <si>
-    <t>E09000022</t>
-  </si>
-  <si>
-    <t>E07000121</t>
-  </si>
-  <si>
-    <t>E08000035</t>
-  </si>
-  <si>
-    <t>E06000016</t>
-  </si>
-  <si>
-    <t>E07000063</t>
-  </si>
-  <si>
-    <t>E09000023</t>
-  </si>
-  <si>
-    <t>E07000194</t>
-  </si>
-  <si>
-    <t>E07000138</t>
-  </si>
-  <si>
-    <t>E08000012</t>
-  </si>
-  <si>
-    <t>E06000032</t>
-  </si>
-  <si>
-    <t>E07000110</t>
-  </si>
-  <si>
-    <t>E07000074</t>
-  </si>
-  <si>
-    <t>E07000235</t>
-  </si>
-  <si>
-    <t>E08000003</t>
-  </si>
-  <si>
-    <t>E07000174</t>
-  </si>
-  <si>
-    <t>E06000035</t>
-  </si>
-  <si>
-    <t>E07000133</t>
-  </si>
-  <si>
-    <t>E07000187</t>
-  </si>
-  <si>
-    <t>E09000024</t>
-  </si>
-  <si>
-    <t>E07000042</t>
-  </si>
-  <si>
-    <t>E07000203</t>
-  </si>
-  <si>
-    <t>E07000228</t>
-  </si>
-  <si>
-    <t>E06000002</t>
-  </si>
-  <si>
-    <t>E06000042</t>
-  </si>
-  <si>
-    <t>E07000210</t>
-  </si>
-  <si>
-    <t>E07000091</t>
-  </si>
-  <si>
-    <t>E07000175</t>
-  </si>
-  <si>
-    <t>E08000021</t>
-  </si>
-  <si>
-    <t>E07000195</t>
-  </si>
-  <si>
-    <t>E09000025</t>
-  </si>
-  <si>
-    <t>E07000043</t>
-  </si>
-  <si>
-    <t>E07000038</t>
-  </si>
-  <si>
-    <t>E06000012</t>
-  </si>
-  <si>
-    <t>E07000099</t>
-  </si>
-  <si>
-    <t>E07000139</t>
-  </si>
-  <si>
-    <t>E06000013</t>
-  </si>
-  <si>
-    <t>E07000147</t>
-  </si>
-  <si>
-    <t>E06000024</t>
-  </si>
-  <si>
-    <t>E08000022</t>
-  </si>
-  <si>
-    <t>E07000218</t>
-  </si>
-  <si>
-    <t>E07000134</t>
-  </si>
-  <si>
-    <t>E07000154</t>
-  </si>
-  <si>
-    <t>E06000057</t>
-  </si>
-  <si>
-    <t>E07000148</t>
-  </si>
-  <si>
-    <t>E06000018</t>
-  </si>
-  <si>
-    <t>E07000219</t>
-  </si>
-  <si>
-    <t>E07000135</t>
-  </si>
-  <si>
-    <t>E08000004</t>
-  </si>
-  <si>
-    <t>E07000178</t>
-  </si>
-  <si>
-    <t>E07000122</t>
-  </si>
-  <si>
-    <t>E06000031</t>
-  </si>
-  <si>
-    <t>E06000026</t>
-  </si>
-  <si>
-    <t>E06000044</t>
-  </si>
-  <si>
-    <t>E07000123</t>
-  </si>
-  <si>
-    <t>E06000038</t>
-  </si>
-  <si>
-    <t>E09000026</t>
-  </si>
-  <si>
-    <t>E06000003</t>
-  </si>
-  <si>
-    <t>E07000236</t>
-  </si>
-  <si>
-    <t>E07000211</t>
-  </si>
-  <si>
-    <t>E07000124</t>
-  </si>
-  <si>
-    <t>E09000027</t>
-  </si>
-  <si>
-    <t>E07000166</t>
-  </si>
-  <si>
-    <t>E08000005</t>
-  </si>
-  <si>
-    <t>E07000075</t>
-  </si>
-  <si>
-    <t>E07000125</t>
-  </si>
-  <si>
-    <t>E07000064</t>
-  </si>
-  <si>
-    <t>E08000018</t>
-  </si>
-  <si>
-    <t>E07000220</t>
-  </si>
-  <si>
-    <t>E07000212</t>
-  </si>
-  <si>
-    <t>E07000176</t>
-  </si>
-  <si>
-    <t>E07000092</t>
-  </si>
-  <si>
-    <t>E06000017</t>
-  </si>
-  <si>
-    <t>E07000167</t>
-  </si>
-  <si>
-    <t>E08000006</t>
-  </si>
-  <si>
-    <t>E08000028</t>
-  </si>
-  <si>
-    <t>E07000168</t>
-  </si>
-  <si>
-    <t>E07000188</t>
-  </si>
-  <si>
-    <t>E08000014</t>
-  </si>
-  <si>
-    <t>E07000169</t>
-  </si>
-  <si>
-    <t>E07000111</t>
-  </si>
-  <si>
-    <t>E08000019</t>
-  </si>
-  <si>
-    <t>E06000051</t>
-  </si>
-  <si>
-    <t>E06000039</t>
-  </si>
-  <si>
-    <t>E08000029</t>
-  </si>
-  <si>
-    <t>E07000246</t>
-  </si>
-  <si>
-    <t>E07000012</t>
-  </si>
-  <si>
-    <t>E07000039</t>
-  </si>
-  <si>
-    <t>E06000025</t>
-  </si>
-  <si>
-    <t>E07000044</t>
-  </si>
-  <si>
-    <t>E07000140</t>
-  </si>
-  <si>
-    <t>E07000141</t>
-  </si>
-  <si>
-    <t>E07000031</t>
-  </si>
-  <si>
-    <t>E07000149</t>
-  </si>
-  <si>
-    <t>E07000155</t>
-  </si>
-  <si>
-    <t>E07000179</t>
-  </si>
-  <si>
-    <t>E07000126</t>
-  </si>
-  <si>
-    <t>E07000189</t>
-  </si>
-  <si>
-    <t>E07000196</t>
-  </si>
-  <si>
-    <t>E08000023</t>
-  </si>
-  <si>
-    <t>E06000045</t>
-  </si>
-  <si>
-    <t>E06000033</t>
-  </si>
-  <si>
-    <t>E09000028</t>
-  </si>
-  <si>
-    <t>E07000213</t>
-  </si>
-  <si>
-    <t>E07000240</t>
-  </si>
-  <si>
-    <t>E08000013</t>
-  </si>
-  <si>
-    <t>E07000197</t>
-  </si>
-  <si>
-    <t>E07000198</t>
-  </si>
-  <si>
-    <t>E07000243</t>
-  </si>
-  <si>
-    <t>E08000007</t>
-  </si>
-  <si>
-    <t>E06000004</t>
-  </si>
-  <si>
-    <t>E06000021</t>
-  </si>
-  <si>
-    <t>E07000221</t>
-  </si>
-  <si>
-    <t>E07000082</t>
-  </si>
-  <si>
-    <t>E10000029</t>
-  </si>
-  <si>
-    <t>E08000024</t>
-  </si>
-  <si>
-    <t>E07000214</t>
-  </si>
-  <si>
-    <t>E09000029</t>
-  </si>
-  <si>
-    <t>E07000113</t>
-  </si>
-  <si>
-    <t>E06000030</t>
-  </si>
-  <si>
-    <t>E08000008</t>
-  </si>
-  <si>
-    <t>E07000199</t>
-  </si>
-  <si>
-    <t>E07000215</t>
-  </si>
-  <si>
-    <t>E07000045</t>
-  </si>
-  <si>
-    <t>E06000020</t>
-  </si>
-  <si>
-    <t>E07000076</t>
-  </si>
-  <si>
-    <t>E07000093</t>
-  </si>
-  <si>
-    <t>E07000083</t>
-  </si>
-  <si>
-    <t>E07000114</t>
-  </si>
-  <si>
-    <t>E07000102</t>
-  </si>
-  <si>
-    <t>E06000034</t>
-  </si>
-  <si>
-    <t>E07000115</t>
-  </si>
-  <si>
-    <t>E06000027</t>
-  </si>
-  <si>
-    <t>E07000046</t>
-  </si>
-  <si>
-    <t>E09000030</t>
-  </si>
-  <si>
-    <t>E08000009</t>
-  </si>
-  <si>
-    <t>E07000116</t>
-  </si>
-  <si>
-    <t>E07000077</t>
-  </si>
-  <si>
-    <t>E07000180</t>
-  </si>
-  <si>
-    <t>E08000036</t>
-  </si>
-  <si>
-    <t>E08000030</t>
-  </si>
-  <si>
-    <t>E09000031</t>
-  </si>
-  <si>
-    <t>E09000032</t>
-  </si>
-  <si>
-    <t>E06000007</t>
-  </si>
-  <si>
-    <t>E07000222</t>
-  </si>
-  <si>
-    <t>E07000103</t>
-  </si>
-  <si>
-    <t>E07000216</t>
-  </si>
-  <si>
-    <t>E07000065</t>
-  </si>
-  <si>
-    <t>E07000156</t>
-  </si>
-  <si>
-    <t>E07000241</t>
-  </si>
-  <si>
-    <t>E06000037</t>
-  </si>
-  <si>
-    <t>E07000047</t>
-  </si>
-  <si>
-    <t>E07000127</t>
-  </si>
-  <si>
-    <t>E07000142</t>
-  </si>
-  <si>
-    <t>E07000181</t>
-  </si>
-  <si>
-    <t>E07000245</t>
-  </si>
-  <si>
-    <t>E09000033</t>
-  </si>
-  <si>
-    <t>E08000010</t>
-  </si>
-  <si>
-    <t>E06000054</t>
-  </si>
-  <si>
-    <t>E07000094</t>
-  </si>
-  <si>
-    <t>E06000040</t>
-  </si>
-  <si>
-    <t>E08000015</t>
-  </si>
-  <si>
-    <t>E07000217</t>
-  </si>
-  <si>
-    <t>E06000041</t>
-  </si>
-  <si>
-    <t>E08000031</t>
-  </si>
-  <si>
-    <t>E07000237</t>
-  </si>
-  <si>
-    <t>E07000229</t>
-  </si>
-  <si>
-    <t>E07000238</t>
-  </si>
-  <si>
-    <t>E07000128</t>
-  </si>
-  <si>
-    <t>E07000239</t>
-  </si>
-  <si>
-    <t>E06000014</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2013,6 +2029,13 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2525,41 +2548,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB37AA6-4DD7-724C-B502-217BED22F759}">
   <dimension ref="A1:I397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="22" customWidth="1"/>
     <col min="3" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="1"/>
+    <col min="7" max="16384" width="9.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>320</v>
+        <v>631</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>319</v>
+        <v>630</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>315</v>
+        <v>632</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>316</v>
+        <v>633</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>317</v>
+        <v>634</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>318</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>278</v>
@@ -2581,7 +2604,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
@@ -2603,7 +2626,7 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>76</v>
@@ -2625,7 +2648,7 @@
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>279</v>
@@ -2647,7 +2670,7 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>105</v>
@@ -2669,7 +2692,7 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>250</v>
@@ -2691,7 +2714,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>183</v>
@@ -2713,7 +2736,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>202</v>
@@ -2735,7 +2758,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>203</v>
@@ -2757,7 +2780,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>63</v>
@@ -2779,7 +2802,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>19</v>
@@ -2801,7 +2824,7 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>153</v>
@@ -2823,7 +2846,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>239</v>
@@ -2845,7 +2868,7 @@
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>106</v>
@@ -2867,7 +2890,7 @@
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>285</v>
@@ -2889,7 +2912,7 @@
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>142</v>
@@ -2911,7 +2934,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>204</v>
@@ -2933,7 +2956,7 @@
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>129</v>
@@ -2955,7 +2978,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>84</v>
@@ -2977,7 +3000,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>12</v>
@@ -2999,7 +3022,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
@@ -3021,7 +3044,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>77</v>
@@ -3043,7 +3066,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>24</v>
@@ -3065,7 +3088,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>91</v>
@@ -3087,7 +3110,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>286</v>
@@ -3109,7 +3132,7 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>221</v>
@@ -3131,7 +3154,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>67</v>
@@ -3153,7 +3176,7 @@
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>154</v>
@@ -3175,7 +3198,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>175</v>
@@ -3197,7 +3220,7 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>205</v>
@@ -3219,7 +3242,7 @@
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>155</v>
@@ -3241,7 +3264,7 @@
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>222</v>
@@ -3263,7 +3286,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>287</v>
@@ -3285,7 +3308,7 @@
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>176</v>
@@ -3307,7 +3330,7 @@
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>206</v>
@@ -3329,7 +3352,7 @@
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>136</v>
@@ -3351,7 +3374,7 @@
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>165</v>
@@ -3373,7 +3396,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>107</v>
@@ -3395,7 +3418,7 @@
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>223</v>
@@ -3417,7 +3440,7 @@
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>34</v>
@@ -3439,7 +3462,7 @@
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>25</v>
@@ -3461,7 +3484,7 @@
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>68</v>
@@ -3483,7 +3506,7 @@
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>148</v>
@@ -3505,7 +3528,7 @@
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>188</v>
@@ -3527,7 +3550,7 @@
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>116</v>
@@ -3549,7 +3572,7 @@
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>251</v>
@@ -3571,7 +3594,7 @@
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>20</v>
@@ -3593,7 +3616,7 @@
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>156</v>
@@ -3615,7 +3638,7 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>143</v>
@@ -3637,7 +3660,7 @@
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>85</v>
@@ -3659,7 +3682,7 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>157</v>
@@ -3681,7 +3704,7 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>305</v>
@@ -3703,7 +3726,7 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>262</v>
@@ -3725,7 +3748,7 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -3747,7 +3770,7 @@
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>15</v>
@@ -3769,7 +3792,7 @@
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>78</v>
@@ -3791,7 +3814,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>280</v>
@@ -3813,7 +3836,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>35</v>
@@ -3835,7 +3858,7 @@
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>189</v>
@@ -3857,7 +3880,7 @@
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>158</v>
@@ -3879,7 +3902,7 @@
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>21</v>
@@ -3901,7 +3924,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>98</v>
@@ -3923,7 +3946,7 @@
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>288</v>
@@ -3945,7 +3968,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>306</v>
@@ -3967,7 +3990,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>0</v>
@@ -3989,7 +4012,7 @@
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>130</v>
@@ -4011,7 +4034,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>56</v>
@@ -4033,7 +4056,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>281</v>
@@ -4055,7 +4078,7 @@
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>207</v>
@@ -4077,7 +4100,7 @@
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>166</v>
@@ -4099,7 +4122,7 @@
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>1</v>
@@ -4121,7 +4144,7 @@
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>252</v>
@@ -4143,7 +4166,7 @@
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>99</v>
@@ -4165,7 +4188,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>72</v>
@@ -4187,7 +4210,7 @@
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>79</v>
@@ -4209,7 +4232,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>64</v>
@@ -4231,7 +4254,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>289</v>
@@ -4253,7 +4276,7 @@
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>253</v>
@@ -4275,7 +4298,7 @@
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>131</v>
@@ -4297,7 +4320,7 @@
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>208</v>
@@ -4319,7 +4342,7 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>149</v>
@@ -4341,7 +4364,7 @@
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>297</v>
@@ -4363,7 +4386,7 @@
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>240</v>
@@ -4385,7 +4408,7 @@
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>167</v>
@@ -4407,7 +4430,7 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>92</v>
@@ -4429,7 +4452,7 @@
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>100</v>
@@ -4451,7 +4474,7 @@
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>51</v>
@@ -4473,7 +4496,7 @@
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>117</v>
@@ -4495,7 +4518,7 @@
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>184</v>
@@ -4517,7 +4540,7 @@
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>234</v>
@@ -4539,7 +4562,7 @@
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>241</v>
@@ -4561,7 +4584,7 @@
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>22</v>
@@ -4583,7 +4606,7 @@
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>267</v>
@@ -4605,7 +4628,7 @@
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>209</v>
@@ -4627,7 +4650,7 @@
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>159</v>
@@ -4649,7 +4672,7 @@
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>268</v>
@@ -4671,7 +4694,7 @@
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>80</v>
@@ -4693,7 +4716,7 @@
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>298</v>
@@ -4715,7 +4738,7 @@
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>242</v>
@@ -4737,7 +4760,7 @@
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>150</v>
@@ -4759,7 +4782,7 @@
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>257</v>
@@ -4781,7 +4804,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>307</v>
@@ -4803,7 +4826,7 @@
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>36</v>
@@ -4825,7 +4848,7 @@
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>7</v>
@@ -4847,7 +4870,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>108</v>
@@ -4869,7 +4892,7 @@
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>308</v>
@@ -4891,7 +4914,7 @@
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>243</v>
@@ -4913,7 +4936,7 @@
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>254</v>
@@ -4935,7 +4958,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>177</v>
@@ -4957,7 +4980,7 @@
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>210</v>
@@ -4979,7 +5002,7 @@
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>269</v>
@@ -5001,7 +5024,7 @@
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>190</v>
@@ -5023,7 +5046,7 @@
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>16</v>
@@ -5045,7 +5068,7 @@
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>57</v>
@@ -5067,7 +5090,7 @@
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>191</v>
@@ -5089,7 +5112,7 @@
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>86</v>
@@ -5111,7 +5134,7 @@
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>192</v>
@@ -5133,7 +5156,7 @@
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>160</v>
@@ -5155,7 +5178,7 @@
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>58</v>
@@ -5177,7 +5200,7 @@
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>211</v>
@@ -5199,7 +5222,7 @@
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>244</v>
@@ -5221,7 +5244,7 @@
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>2</v>
@@ -5243,7 +5266,7 @@
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>235</v>
@@ -5265,7 +5288,7 @@
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>245</v>
@@ -5287,7 +5310,7 @@
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>212</v>
@@ -5309,7 +5332,7 @@
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>112</v>
@@ -5331,7 +5354,7 @@
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>168</v>
@@ -5353,7 +5376,7 @@
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>81</v>
@@ -5375,7 +5398,7 @@
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>213</v>
@@ -5397,7 +5420,7 @@
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>87</v>
@@ -5419,7 +5442,7 @@
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>282</v>
@@ -5441,7 +5464,7 @@
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>214</v>
@@ -5463,7 +5486,7 @@
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>151</v>
@@ -5485,7 +5508,7 @@
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>37</v>
@@ -5507,7 +5530,7 @@
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>185</v>
@@ -5529,7 +5552,7 @@
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>224</v>
@@ -5551,7 +5574,7 @@
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>290</v>
@@ -5573,7 +5596,7 @@
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>193</v>
@@ -5595,7 +5618,7 @@
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>194</v>
@@ -5617,7 +5640,7 @@
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>101</v>
@@ -5639,7 +5662,7 @@
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>178</v>
@@ -5661,7 +5684,7 @@
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>52</v>
@@ -5683,7 +5706,7 @@
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>215</v>
@@ -5705,7 +5728,7 @@
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>69</v>
@@ -5727,7 +5750,7 @@
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>46</v>
@@ -5749,7 +5772,7 @@
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>195</v>
@@ -5771,7 +5794,7 @@
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>38</v>
@@ -5793,7 +5816,7 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>70</v>
@@ -5815,7 +5838,7 @@
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>73</v>
@@ -5837,7 +5860,7 @@
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>236</v>
@@ -5859,7 +5882,7 @@
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>196</v>
@@ -5881,7 +5904,7 @@
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>118</v>
@@ -5903,7 +5926,7 @@
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>93</v>
@@ -5925,7 +5948,7 @@
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>47</v>
@@ -5947,7 +5970,7 @@
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>144</v>
@@ -5969,7 +5992,7 @@
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>255</v>
@@ -5991,7 +6014,7 @@
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>161</v>
@@ -6013,7 +6036,7 @@
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>137</v>
@@ -6035,7 +6058,7 @@
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>26</v>
@@ -6057,7 +6080,7 @@
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>109</v>
@@ -6079,7 +6102,7 @@
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>225</v>
@@ -6101,7 +6124,7 @@
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>88</v>
@@ -6123,7 +6146,7 @@
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>311</v>
@@ -6145,7 +6168,7 @@
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>216</v>
@@ -6167,7 +6190,7 @@
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>299</v>
@@ -6189,7 +6212,7 @@
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>186</v>
@@ -6211,7 +6234,7 @@
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>283</v>
@@ -6233,7 +6256,7 @@
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>3</v>
@@ -6255,7 +6278,7 @@
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>226</v>
@@ -6277,7 +6300,7 @@
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>270</v>
@@ -6299,7 +6322,7 @@
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>246</v>
@@ -6321,7 +6344,7 @@
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>110</v>
@@ -6343,7 +6366,7 @@
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>8</v>
@@ -6365,7 +6388,7 @@
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>119</v>
@@ -6387,7 +6410,7 @@
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>197</v>
@@ -6409,7 +6432,7 @@
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>300</v>
@@ -6431,7 +6454,7 @@
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>82</v>
@@ -6453,7 +6476,7 @@
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>53</v>
@@ -6475,7 +6498,7 @@
     </row>
     <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>169</v>
@@ -6497,7 +6520,7 @@
     </row>
     <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>94</v>
@@ -6519,7 +6542,7 @@
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>54</v>
@@ -6541,7 +6564,7 @@
     </row>
     <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>179</v>
@@ -6563,7 +6586,7 @@
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>291</v>
@@ -6585,7 +6608,7 @@
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>9</v>
@@ -6607,7 +6630,7 @@
     </row>
     <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>124</v>
@@ -6629,7 +6652,7 @@
     </row>
     <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>89</v>
@@ -6651,7 +6674,7 @@
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>102</v>
@@ -6673,7 +6696,7 @@
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>4</v>
@@ -6695,7 +6718,7 @@
     </row>
     <row r="190" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>180</v>
@@ -6717,7 +6740,7 @@
     </row>
     <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>74</v>
@@ -6739,7 +6762,7 @@
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>125</v>
@@ -6761,7 +6784,7 @@
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>90</v>
@@ -6783,7 +6806,7 @@
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>27</v>
@@ -6805,7 +6828,7 @@
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>263</v>
@@ -6827,7 +6850,7 @@
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>39</v>
@@ -6849,7 +6872,7 @@
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>145</v>
@@ -6871,7 +6894,7 @@
     </row>
     <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>292</v>
@@ -6893,7 +6916,7 @@
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>227</v>
@@ -6915,7 +6938,7 @@
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>40</v>
@@ -6937,7 +6960,7 @@
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>228</v>
@@ -6959,7 +6982,7 @@
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>217</v>
@@ -6981,7 +7004,7 @@
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>5</v>
@@ -7003,7 +7026,7 @@
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>138</v>
@@ -7025,7 +7048,7 @@
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>271</v>
@@ -7047,7 +7070,7 @@
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>41</v>
@@ -7069,7 +7092,7 @@
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>218</v>
@@ -7091,7 +7114,7 @@
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>59</v>
@@ -7113,7 +7136,7 @@
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>28</v>
@@ -7135,7 +7158,7 @@
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>162</v>
@@ -7157,7 +7180,7 @@
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>42</v>
@@ -7179,7 +7202,7 @@
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>237</v>
@@ -7201,7 +7224,7 @@
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>65</v>
@@ -7223,7 +7246,7 @@
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>126</v>
@@ -7245,7 +7268,7 @@
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>272</v>
@@ -7267,7 +7290,7 @@
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>111</v>
@@ -7289,7 +7312,7 @@
     </row>
     <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>247</v>
@@ -7311,7 +7334,7 @@
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>75</v>
@@ -7333,7 +7356,7 @@
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>60</v>
@@ -7355,7 +7378,7 @@
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>29</v>
@@ -7377,7 +7400,7 @@
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>132</v>
@@ -7399,7 +7422,7 @@
     </row>
     <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>61</v>
@@ -7421,7 +7444,7 @@
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>312</v>
@@ -7441,7 +7464,7 @@
     </row>
     <row r="224" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>48</v>
@@ -7463,7 +7486,7 @@
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>62</v>
@@ -7485,7 +7508,7 @@
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>256</v>
@@ -7507,7 +7530,7 @@
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>66</v>
@@ -7529,7 +7552,7 @@
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>113</v>
@@ -7551,7 +7574,7 @@
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>229</v>
@@ -7573,7 +7596,7 @@
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>133</v>
@@ -7595,7 +7618,7 @@
     </row>
     <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>313</v>
@@ -7617,7 +7640,7 @@
     </row>
     <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>152</v>
@@ -7639,7 +7662,7 @@
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>83</v>
@@ -7661,7 +7684,7 @@
     </row>
     <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>293</v>
@@ -7683,7 +7706,7 @@
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>301</v>
@@ -7705,7 +7728,7 @@
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>95</v>
@@ -7727,7 +7750,7 @@
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>96</v>
@@ -7749,7 +7772,7 @@
     </row>
     <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>23</v>
@@ -7771,7 +7794,7 @@
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>181</v>
@@ -7793,7 +7816,7 @@
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>103</v>
@@ -7815,7 +7838,7 @@
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>264</v>
@@ -7837,7 +7860,7 @@
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>43</v>
@@ -7859,7 +7882,7 @@
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>314</v>
@@ -7881,7 +7904,7 @@
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>120</v>
@@ -7903,7 +7926,7 @@
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>10</v>
@@ -7925,7 +7948,7 @@
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>230</v>
@@ -7947,7 +7970,7 @@
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>146</v>
@@ -7969,7 +7992,7 @@
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>198</v>
@@ -7991,7 +8014,7 @@
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>273</v>
@@ -8013,7 +8036,7 @@
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>170</v>
@@ -8035,7 +8058,7 @@
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>49</v>
@@ -8057,7 +8080,7 @@
     </row>
     <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>121</v>
@@ -8079,7 +8102,7 @@
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>122</v>
@@ -8101,7 +8124,7 @@
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>171</v>
@@ -8123,7 +8146,7 @@
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>30</v>
@@ -8145,7 +8168,7 @@
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>6</v>
@@ -8167,7 +8190,7 @@
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>114</v>
@@ -8189,7 +8212,7 @@
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>127</v>
@@ -8211,7 +8234,7 @@
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>309</v>
@@ -8233,7 +8256,7 @@
     </row>
     <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>182</v>
@@ -8255,7 +8278,7 @@
     </row>
     <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>11</v>
@@ -8277,7 +8300,7 @@
     </row>
     <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>274</v>
@@ -8299,7 +8322,7 @@
     </row>
     <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>219</v>
@@ -8321,7 +8344,7 @@
     </row>
     <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>258</v>
@@ -8343,7 +8366,7 @@
     </row>
     <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>294</v>
@@ -8365,7 +8388,7 @@
     </row>
     <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>31</v>
@@ -8387,7 +8410,7 @@
     </row>
     <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>123</v>
@@ -8409,7 +8432,7 @@
     </row>
     <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>275</v>
@@ -8431,7 +8454,7 @@
     </row>
     <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>302</v>
@@ -8453,7 +8476,7 @@
     </row>
     <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>115</v>
@@ -8475,7 +8498,7 @@
     </row>
     <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>163</v>
@@ -8497,7 +8520,7 @@
     </row>
     <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>248</v>
@@ -8519,7 +8542,7 @@
     </row>
     <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>310</v>
@@ -8541,7 +8564,7 @@
     </row>
     <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>259</v>
@@ -8563,7 +8586,7 @@
     </row>
     <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>172</v>
@@ -8585,7 +8608,7 @@
     </row>
     <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>147</v>
@@ -8607,7 +8630,7 @@
     </row>
     <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>260</v>
@@ -8629,7 +8652,7 @@
     </row>
     <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>295</v>
@@ -8651,7 +8674,7 @@
     </row>
     <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>303</v>
@@ -8673,7 +8696,7 @@
     </row>
     <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>199</v>
@@ -8695,7 +8718,7 @@
     </row>
     <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>32</v>
@@ -8717,7 +8740,7 @@
     </row>
     <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>261</v>
@@ -8739,7 +8762,7 @@
     </row>
     <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>164</v>
@@ -8761,7 +8784,7 @@
     </row>
     <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>265</v>
@@ -8783,7 +8806,7 @@
     </row>
     <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>71</v>
@@ -8805,7 +8828,7 @@
     </row>
     <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>134</v>
@@ -8827,7 +8850,7 @@
     </row>
     <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>220</v>
@@ -8849,7 +8872,7 @@
     </row>
     <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>200</v>
@@ -8871,7 +8894,7 @@
     </row>
     <row r="289" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>17</v>
@@ -8893,7 +8916,7 @@
     </row>
     <row r="290" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>128</v>
@@ -8915,7 +8938,7 @@
     </row>
     <row r="291" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>173</v>
@@ -8935,7 +8958,7 @@
     </row>
     <row r="292" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>276</v>
@@ -8957,7 +8980,7 @@
     </row>
     <row r="293" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>238</v>
@@ -8979,7 +9002,7 @@
     </row>
     <row r="294" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>104</v>
@@ -9001,7 +9024,7 @@
     </row>
     <row r="295" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>174</v>
@@ -9023,7 +9046,7 @@
     </row>
     <row r="296" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>231</v>
@@ -9045,7 +9068,7 @@
     </row>
     <row r="297" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>304</v>
@@ -9067,7 +9090,7 @@
     </row>
     <row r="298" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>44</v>
@@ -9089,7 +9112,7 @@
     </row>
     <row r="299" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>97</v>
@@ -9111,7 +9134,7 @@
     </row>
     <row r="300" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>266</v>
@@ -9133,7 +9156,7 @@
     </row>
     <row r="301" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>187</v>
@@ -9155,7 +9178,7 @@
     </row>
     <row r="302" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>201</v>
@@ -9177,7 +9200,7 @@
     </row>
     <row r="303" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>33</v>
@@ -9199,7 +9222,7 @@
     </row>
     <row r="304" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>296</v>
@@ -9221,7 +9244,7 @@
     </row>
     <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>249</v>
@@ -9243,7 +9266,7 @@
     </row>
     <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>232</v>
@@ -9265,7 +9288,7 @@
     </row>
     <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>50</v>
@@ -9287,7 +9310,7 @@
     </row>
     <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>277</v>
@@ -9309,7 +9332,7 @@
     </row>
     <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>233</v>
@@ -9331,7 +9354,7 @@
     </row>
     <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>135</v>
@@ -9353,7 +9376,7 @@
     </row>
     <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>139</v>
@@ -9375,7 +9398,7 @@
     </row>
     <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>284</v>
@@ -9397,7 +9420,7 @@
     </row>
     <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>140</v>
@@ -9419,7 +9442,7 @@
     </row>
     <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>45</v>
@@ -9441,7 +9464,7 @@
     </row>
     <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>141</v>
@@ -9463,7 +9486,7 @@
     </row>
     <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>55</v>
@@ -10203,9 +10226,10 @@
       <c r="B397" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="B2:F397">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F397">
     <sortCondition ref="B2:B397"/>
   </sortState>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
